--- a/Code_calc_z.xlsx
+++ b/Code_calc_z.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leoohyama/Google Drive/Dissertation/Species_Area/SpeciesArea/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00D5627-AC6C-094C-B82C-D7CD3DD6029A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F0E3FF-F09E-CA46-BE06-0DC9E81A8D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="42060" windowHeight="16440" xr2:uid="{44CF9553-DA25-D440-913F-2D3C2C445B39}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26960" windowHeight="10640" xr2:uid="{44CF9553-DA25-D440-913F-2D3C2C445B39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="154">
   <si>
     <t>Study ID</t>
   </si>
@@ -480,13 +480,28 @@
   </si>
   <si>
     <t>Sea of Cortez</t>
+  </si>
+  <si>
+    <t>Wetterer, J.K., X. Espadaler, A.L. Wetterer, and S.G.M. Cabral. 2004. Native and exotic ants of the Azores (Hymenoptera: Formicidae). Sociobiology 44: 1-20.</t>
+  </si>
+  <si>
+    <t>Azores, Portugal</t>
+  </si>
+  <si>
+    <t>Leaflitter, previous records</t>
+  </si>
+  <si>
+    <t>Wetterer unpublshed</t>
+  </si>
+  <si>
+    <t>Cabo Verde, Atlantic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -501,8 +516,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,6 +563,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -543,10 +579,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -556,8 +593,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -870,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015AE41E-ADEB-754E-B78B-CF19DAA94F7E}">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -885,8 +925,8 @@
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="12" max="12" width="15.5" customWidth="1"/>
     <col min="13" max="13" width="20.6640625" customWidth="1"/>
-    <col min="14" max="14" width="21.1640625" customWidth="1"/>
-    <col min="15" max="15" width="23.33203125" customWidth="1"/>
+    <col min="14" max="14" width="38.5" customWidth="1"/>
+    <col min="15" max="15" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -2704,9 +2744,6 @@
       <c r="M32">
         <v>79000000000</v>
       </c>
-      <c r="N32">
-        <v>79000000000</v>
-      </c>
       <c r="R32" s="8">
         <v>-0.33</v>
       </c>
@@ -2965,6 +3002,138 @@
         <v>72</v>
       </c>
       <c r="W37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="24" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38">
+        <v>2004</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="9">
+        <v>38.553958000000002</v>
+      </c>
+      <c r="G38" s="9">
+        <v>-25.495773</v>
+      </c>
+      <c r="H38" t="s">
+        <v>150</v>
+      </c>
+      <c r="I38" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38">
+        <v>9</v>
+      </c>
+      <c r="K38">
+        <v>20000000</v>
+      </c>
+      <c r="L38">
+        <v>769000000</v>
+      </c>
+      <c r="M38">
+        <f>LOG10(L38)-LOG10(K38)</f>
+        <v>1.5848963441374497</v>
+      </c>
+      <c r="N38">
+        <v>14</v>
+      </c>
+      <c r="P38" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="S38" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T38" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="U38" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="W38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="24" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39">
+        <v>2003</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="9">
+        <v>16.056146999999999</v>
+      </c>
+      <c r="G39" s="9">
+        <v>-23.855654000000001</v>
+      </c>
+      <c r="H39" t="s">
+        <v>153</v>
+      </c>
+      <c r="I39" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39">
+        <v>9</v>
+      </c>
+      <c r="K39">
+        <v>67000000</v>
+      </c>
+      <c r="L39">
+        <v>940000000</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ref="M39" si="0">LOG10(L39)-LOG10(K39)</f>
+        <v>1.1470530508988732</v>
+      </c>
+      <c r="N39">
+        <v>39</v>
+      </c>
+      <c r="P39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q39">
+        <v>2</v>
+      </c>
+      <c r="R39" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="S39" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="T39" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="U39" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="W39" t="s">
         <v>36</v>
       </c>
     </row>
